--- a/biology/Botanique/William_Marsden_(orientaliste)/William_Marsden_(orientaliste).xlsx
+++ b/biology/Botanique/William_Marsden_(orientaliste)/William_Marsden_(orientaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Marsden, né dans le comté de Wicklow[1], le 16 novembre 1754 et mort à Londres, 6 octobre 1836, est un orientaliste, linguiste, numismate et explorateur britannique, auteur d'études scientifiques sur l'Indonésie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Marsden, né dans le comté de Wicklow, le 16 novembre 1754 et mort à Londres, 6 octobre 1836, est un orientaliste, linguiste, numismate et explorateur britannique, auteur d'études scientifiques sur l'Indonésie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de commerçants, il fait ses études universitaires à Trinity College (Dublin). Il entre ensuite dans la Compagnie britannique des Indes orientales et rejoint son frère en poste à Bengkulu (Bencoolen), dans le sud de l'île de Sumatra en 1871.
 Devenu secrétaire du gouvernement, il étudie la langue et les coutumes locales et revient en Angleterre en 1779 où il obtient un doctorat en droit civil de l'université d'Oxford (1780). Outre des études sur l'Indonésie, il a aussi publié des travaux de numismatique.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire de Sumatra, 1795
 Catalogue of Dictionaries, Vocabularies, Grammars and Alphabets, 1796
@@ -579,11 +595,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1783 : membre de la Royal Society
-1785 : membre fondateur de la Royal Irish Academy[2]
-1786 : docteur honoris causa de l'université d'Oxford (DCL)[2]
+1785 : membre fondateur de la Royal Irish Academy
+1786 : docteur honoris causa de l'université d'Oxford (DCL)
 Membre de l'Académie royale suédoise des lettres, d'histoire et d'antiquités</t>
         </is>
       </c>
